--- a/backups/Task.xlsx
+++ b/backups/Task.xlsx
@@ -159,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -256,17 +256,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -280,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -292,14 +281,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,7 +693,7 @@
   <dimension ref="B1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,16 +707,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -736,7 +724,9 @@
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
@@ -747,9 +737,6 @@
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>25</v>
